--- a/hola.xlsx
+++ b/hola.xlsx
@@ -204,7 +204,7 @@
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="4">
-        <v>43761.6156787</v>
+        <v>43761.6228365</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
